--- a/overrides.xlsx
+++ b/overrides.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="220">
   <si>
     <t>TagNumber</t>
   </si>
@@ -400,40 +400,343 @@
     <t>Exaopc/Pipeline/037PIA288_50</t>
   </si>
   <si>
-    <t>056XV113_60</t>
-  </si>
-  <si>
-    <t>SIMM=1</t>
-  </si>
-  <si>
-    <t>056XY113_60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ON/OFF VALVE E-5606-01 SLURRY WATER INLET </t>
-  </si>
-  <si>
-    <t>1706630</t>
-  </si>
-  <si>
-    <t>по запросу РР</t>
-  </si>
-  <si>
-    <t>056XY118_60</t>
-  </si>
-  <si>
-    <t>056XY174_60</t>
-  </si>
-  <si>
-    <t>N/OFF VALVE WATER TO MONO-ETHYLENE GLYCOL RECIRCULATION PUMP</t>
-  </si>
-  <si>
-    <t>ON/OFF VALVE V-5606-03 OILY WATER INLET</t>
-  </si>
-  <si>
-    <t>056XV118_60</t>
-  </si>
-  <si>
-    <t>056XV174_60</t>
+    <t>%_030SY009</t>
+  </si>
+  <si>
+    <t>K8404A FAN|MTR SPD CTRL</t>
+  </si>
+  <si>
+    <t>FGS_OPF_CCM4 R08S06 ch. 9</t>
+  </si>
+  <si>
+    <t>%_030SY010</t>
+  </si>
+  <si>
+    <t>K8404B FAN|MTR SPD CTRL</t>
+  </si>
+  <si>
+    <t>FGS_OPF_CCM4 R08S06 ch. 10</t>
+  </si>
+  <si>
+    <t>%_030XL100</t>
+  </si>
+  <si>
+    <t>COMP HSE|FIRE</t>
+  </si>
+  <si>
+    <t>FGS_OPF_CCM2 R04S02 ch. 20</t>
+  </si>
+  <si>
+    <t>%_030XZS140</t>
+  </si>
+  <si>
+    <t>ISOL LSB4062|ELEC DISBRD</t>
+  </si>
+  <si>
+    <t>FGS_OPF_CCM1 R03S07 ch. 2</t>
+  </si>
+  <si>
+    <t>%_030XZS141</t>
+  </si>
+  <si>
+    <t>ISOL LSB4025|ELEC DISBRD</t>
+  </si>
+  <si>
+    <t>FGS_OPF_CCM1 R03S08 ch. 2</t>
+  </si>
+  <si>
+    <t>%_030XZS142</t>
+  </si>
+  <si>
+    <t>ISOL LSB6021|ELEC DISBRD</t>
+  </si>
+  <si>
+    <t>FGS_OPF_CCM1 R03S07 ch. 3</t>
+  </si>
+  <si>
+    <t>%_030XZS143</t>
+  </si>
+  <si>
+    <t>ISOL LSB4022|ELEC DISBRD</t>
+  </si>
+  <si>
+    <t>FGS_OPF_CCM1 R03S08 ch. 3</t>
+  </si>
+  <si>
+    <t>%_030XZS144</t>
+  </si>
+  <si>
+    <t>ISOL LSB4051|ELEC DISBRD</t>
+  </si>
+  <si>
+    <t>FGS_OPF_CCM1 R03S07 ch. 4</t>
+  </si>
+  <si>
+    <t>%_030XZS145</t>
+  </si>
+  <si>
+    <t>ISOL ELEC|W01-02-BR3C</t>
+  </si>
+  <si>
+    <t>FGS_OPF_CCM1 R03S08 ch. 4</t>
+  </si>
+  <si>
+    <t>%_030XZS146</t>
+  </si>
+  <si>
+    <t>ISOL ELEC|W01-02-AF8D</t>
+  </si>
+  <si>
+    <t>FGS_OPF_CCM1 R03S07 ch. 5</t>
+  </si>
+  <si>
+    <t>%_030XZS147</t>
+  </si>
+  <si>
+    <t>ISOL ELEC|W01-02-BF8C</t>
+  </si>
+  <si>
+    <t>FGS_OPF_CCM1 R03S08 ch. 5</t>
+  </si>
+  <si>
+    <t>%_030XZS148</t>
+  </si>
+  <si>
+    <t>ISOL LSB4030|ELEC DISBRD</t>
+  </si>
+  <si>
+    <t>FGS_OPF_CCM1 R03S07 ch. 6</t>
+  </si>
+  <si>
+    <t>%_030XZS149</t>
+  </si>
+  <si>
+    <t>ISOL LSB4031|ELEC DISBRD</t>
+  </si>
+  <si>
+    <t>FGS_OPF_CCM1 R03S08 ch. 6</t>
+  </si>
+  <si>
+    <t>%_030XZS150</t>
+  </si>
+  <si>
+    <t>ISOL ELEC|W01-02-AF8E</t>
+  </si>
+  <si>
+    <t>FGS_OPF_CCM1 R03S07 ch. 7</t>
+  </si>
+  <si>
+    <t>%_030XZS151</t>
+  </si>
+  <si>
+    <t>ISOL ELEC|W01-05-B2L</t>
+  </si>
+  <si>
+    <t>FGS_OPF_CCM1 R03S08 ch. 7</t>
+  </si>
+  <si>
+    <t>%_030XZS152</t>
+  </si>
+  <si>
+    <t>ISOL ELEC|W01-04-B4E</t>
+  </si>
+  <si>
+    <t>FGS_OPF_CCM1 R03S07 ch. 8</t>
+  </si>
+  <si>
+    <t>%_030XZS153</t>
+  </si>
+  <si>
+    <t>ISOL ELEC|W01-02-BF8D</t>
+  </si>
+  <si>
+    <t>FGS_OPF_CCM1 R03S08 ch. 8</t>
+  </si>
+  <si>
+    <t>%_030XZS154</t>
+  </si>
+  <si>
+    <t>ISOL ELEC|W01-02-AF8G</t>
+  </si>
+  <si>
+    <t>FGS_OPF_CCM1 R03S07 ch. 9</t>
+  </si>
+  <si>
+    <t>%_030XZS155</t>
+  </si>
+  <si>
+    <t>ISOL LSB4032|ELEC DISBRD</t>
+  </si>
+  <si>
+    <t>FGS_OPF_CCM1 R03S08 ch. 9</t>
+  </si>
+  <si>
+    <t>%_030XZS156</t>
+  </si>
+  <si>
+    <t>ISOL ELC|W01-02-BF8F</t>
+  </si>
+  <si>
+    <t>FGS_OPF_CCM1 R02S08 ch. 4</t>
+  </si>
+  <si>
+    <t>%_030XZS157</t>
+  </si>
+  <si>
+    <t>ISOL ELEC|W01-02-BF8H</t>
+  </si>
+  <si>
+    <t>FGS_OPF_CCM1 R02S06 ch. 5</t>
+  </si>
+  <si>
+    <t>%_030XZS158</t>
+  </si>
+  <si>
+    <t>ISOL ELEC|DISBD</t>
+  </si>
+  <si>
+    <t>FGS_OPF_CCM2 R05S08 ch. 6</t>
+  </si>
+  <si>
+    <t>%_030XZS159</t>
+  </si>
+  <si>
+    <t>FGS_OPF_CCM2 R05S08 ch. 7</t>
+  </si>
+  <si>
+    <t>%_030XZS160</t>
+  </si>
+  <si>
+    <t>FGS_OPF_CCM2 R05S08 ch. 8</t>
+  </si>
+  <si>
+    <t>%_030XZS161</t>
+  </si>
+  <si>
+    <t>ISOL ELEC|SWB</t>
+  </si>
+  <si>
+    <t>FGS_OPF_CCM2 R04S06 ch. 10</t>
+  </si>
+  <si>
+    <t>%_030XZS240</t>
+  </si>
+  <si>
+    <t>ISOL ELEC|W01-04-A4B</t>
+  </si>
+  <si>
+    <t>FGS_OPF_CCM1 R03S07 ch. 10</t>
+  </si>
+  <si>
+    <t>%_030XZS241</t>
+  </si>
+  <si>
+    <t>ISOL ELEC|W01-04-A4C</t>
+  </si>
+  <si>
+    <t>FGS_OPF_CCM1 R03S07 ch. 11</t>
+  </si>
+  <si>
+    <t>%_030XZS275</t>
+  </si>
+  <si>
+    <t>FGS_OPF_CCM1 R03S07 ch. 12</t>
+  </si>
+  <si>
+    <t>%_030XZS398</t>
+  </si>
+  <si>
+    <t>ISOL ELEC|DISBRD</t>
+  </si>
+  <si>
+    <t>FGS_OPF_CCM3 R07S06 ch. 1</t>
+  </si>
+  <si>
+    <t>%_030XZS399</t>
+  </si>
+  <si>
+    <t>FGS_OPF_CCM3 R07S06 ch. 2</t>
+  </si>
+  <si>
+    <t>%_030XZS407</t>
+  </si>
+  <si>
+    <t>K8408A FAN|ESD</t>
+  </si>
+  <si>
+    <t>FGS_OPF_CCM3 R06S10 ch. 7</t>
+  </si>
+  <si>
+    <t>%_030XZS408</t>
+  </si>
+  <si>
+    <t>K8408B FAN|ESD</t>
+  </si>
+  <si>
+    <t>FGS_OPF_CCM3 R06S10 ch. 8</t>
+  </si>
+  <si>
+    <t>%_030XZS474A</t>
+  </si>
+  <si>
+    <t>K3701B S/D|CL SEAL VLV</t>
+  </si>
+  <si>
+    <t>FGS_OPF_CCM4 R09S06 ch. 26</t>
+  </si>
+  <si>
+    <t>%_030XZS475A</t>
+  </si>
+  <si>
+    <t>K3701B EDP</t>
+  </si>
+  <si>
+    <t>FGS_OPF_CCM4 R09S06 ch. 27</t>
+  </si>
+  <si>
+    <t>%_030XZY334A</t>
+  </si>
+  <si>
+    <t>COMP HSE|WALL FD</t>
+  </si>
+  <si>
+    <t>FGS_OPF_CCM3 R06S09 ch. 7</t>
+  </si>
+  <si>
+    <t>%_030XZY334B</t>
+  </si>
+  <si>
+    <t>FGS_OPF_CCM3 R06S09 ch. 8</t>
+  </si>
+  <si>
+    <t>|FZF11_030XZS044|</t>
+  </si>
+  <si>
+    <t>|FZF17_030XZS044|</t>
+  </si>
+  <si>
+    <t>|FZF17_060XZS002|</t>
+  </si>
+  <si>
+    <t>FGS CCM2</t>
+  </si>
+  <si>
+    <t>FGS CCM3</t>
+  </si>
+  <si>
+    <t>FGS CCM4</t>
+  </si>
+  <si>
+    <t>PA/PG ZN1</t>
+  </si>
+  <si>
+    <t>PA/GA ZN1</t>
+  </si>
+  <si>
+    <t>P6001A FRW|PMP</t>
+  </si>
+  <si>
+    <t>1054470</t>
   </si>
 </sst>
 </file>
@@ -618,7 +921,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -652,6 +955,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -731,8 +1037,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Input" xfId="1" builtinId="20"/>
@@ -1022,153 +1326,153 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="22"/>
-    <col min="2" max="2" width="239.42578125" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="20"/>
+    <col min="1" max="1" width="9.140625" style="23"/>
+    <col min="2" max="2" width="239.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="24" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
+      <c r="A4" s="23">
         <v>1</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="20" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="24" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="22">
+      <c r="A6" s="23">
         <v>2</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="20" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="22">
+      <c r="A7" s="23">
         <v>3</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="20" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="22">
+      <c r="A8" s="23">
         <v>4</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="20" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="22">
+      <c r="A9" s="23">
         <v>5</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="20" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="22">
+      <c r="A10" s="23">
         <v>6</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="20" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="22">
+      <c r="A11" s="23">
         <v>7</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="20" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="22">
-        <v>8</v>
-      </c>
-      <c r="B12" s="19" t="s">
+      <c r="A12" s="23">
+        <v>8</v>
+      </c>
+      <c r="B12" s="20" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="22">
-        <v>9</v>
-      </c>
-      <c r="B13" s="19" t="s">
+      <c r="A13" s="23">
+        <v>9</v>
+      </c>
+      <c r="B13" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="22">
+      <c r="A14" s="23">
         <v>10</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="20" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="27" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="20" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="20" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="24" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="28" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="20" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="20" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="24" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1186,772 +1490,1319 @@
   <dimension ref="A1:L84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" style="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.28515625" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" style="28" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8" style="28" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="28"/>
+    <col min="1" max="1" width="29.42578125" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" style="29" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" style="29" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="37" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="39"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="39"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="39"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="39"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="39"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="39"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="39"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="39"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="39"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="39"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="39"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="39"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="39"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="39"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="39"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="39"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="39"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="39"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="39"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" s="39"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" s="39"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H23" s="39"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" s="39"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G25" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="39"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" s="39"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G27" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" s="39"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G28" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H28" s="39"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="D29" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="G29" s="41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="38" t="s">
+        <v>193</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G30" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H30" s="39"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="D31" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G31" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H31" s="39"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G32" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H32" s="39"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="D33" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G33" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H33" s="39"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" s="29" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="C34" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G34" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H34" s="39"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="30" t="s">
+      <c r="B35" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="30"/>
-      <c r="H2" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="30"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="C35" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="30"/>
-      <c r="H4" s="31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="38"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="38"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="38"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="38"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="38"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="38"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="43"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="38"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="43"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="38"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="38"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="38"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="38"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="43"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="38"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="43"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="38"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="38"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="38"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="43"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="38"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="38"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="38"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="43"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="38"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="43"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="38"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="43"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="38"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="43"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="38"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="43"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="38"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="43"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="38"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="43"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="38"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="43"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="38"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="43"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="38"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="43"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="38"/>
+      <c r="D35" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G35" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H35" s="39"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="43"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="38"/>
+      <c r="A36" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G36" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H36" s="39"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="43"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="38"/>
+      <c r="A37" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G37" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H37" s="39"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="32"/>
+      <c r="A38" t="s">
+        <v>210</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="D38" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G38" s="33" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="42"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="32"/>
+      <c r="A39" t="s">
+        <v>211</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="D39" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G39" s="33" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="42"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="32"/>
+      <c r="A40" t="s">
+        <v>212</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="D40" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G40" s="33" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="42"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="32"/>
+      <c r="A41" t="s">
+        <v>211</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="D41" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G41" s="33" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="42"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="32"/>
+      <c r="A42" t="s">
+        <v>212</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="D42" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G42" s="33" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="37"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="40"/>
+      <c r="A43" s="38"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="41"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="38"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="41"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="37"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="40"/>
+      <c r="A46" s="38"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="41"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="37"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="40"/>
+      <c r="A47" s="38"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="41"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="37"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="40"/>
+      <c r="A48" s="38"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="41"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="37"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="40"/>
+      <c r="A49" s="38"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="41"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="37"/>
-      <c r="D50" s="38"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="40"/>
+      <c r="A50" s="38"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="41"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="37"/>
-      <c r="D51" s="38"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="40"/>
+      <c r="A51" s="38"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="41"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="37"/>
-      <c r="D52" s="38"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="40"/>
+      <c r="A52" s="38"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="41"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="37"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="40"/>
+      <c r="A53" s="38"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="41"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="37"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="38"/>
-      <c r="G54" s="40"/>
+      <c r="A54" s="38"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="41"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="37"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="38"/>
-      <c r="G55" s="40"/>
+      <c r="A55" s="38"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="41"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="37"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="38"/>
-      <c r="G56" s="40"/>
+      <c r="A56" s="38"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="41"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="37"/>
-      <c r="D57" s="38"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="38"/>
-      <c r="G57" s="40"/>
+      <c r="A57" s="38"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="41"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="37"/>
-      <c r="D58" s="38"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="38"/>
-      <c r="G58" s="40"/>
+      <c r="A58" s="38"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="41"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="37"/>
-      <c r="D59" s="38"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="38"/>
-      <c r="G59" s="40"/>
+      <c r="A59" s="38"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="41"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="37"/>
-      <c r="D60" s="38"/>
-      <c r="E60" s="38"/>
-      <c r="F60" s="38"/>
-      <c r="G60" s="40"/>
+      <c r="A60" s="38"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="41"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="37"/>
-      <c r="D61" s="38"/>
-      <c r="E61" s="38"/>
-      <c r="F61" s="38"/>
-      <c r="G61" s="40"/>
+      <c r="A61" s="38"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="41"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="37"/>
-      <c r="D62" s="38"/>
-      <c r="E62" s="38"/>
-      <c r="F62" s="38"/>
-      <c r="G62" s="40"/>
+      <c r="A62" s="38"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="41"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="37"/>
-      <c r="D63" s="38"/>
-      <c r="E63" s="38"/>
-      <c r="F63" s="38"/>
-      <c r="G63" s="40"/>
+      <c r="A63" s="38"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="41"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="37"/>
-      <c r="D64" s="38"/>
-      <c r="E64" s="38"/>
-      <c r="F64" s="38"/>
-      <c r="G64" s="40"/>
+      <c r="A64" s="38"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="41"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="37"/>
-      <c r="D65" s="38"/>
-      <c r="E65" s="38"/>
-      <c r="F65" s="38"/>
-      <c r="G65" s="40"/>
+      <c r="A65" s="38"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="41"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="37"/>
-      <c r="D66" s="38"/>
-      <c r="E66" s="38"/>
-      <c r="F66" s="38"/>
-      <c r="G66" s="40"/>
+      <c r="A66" s="38"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="39"/>
+      <c r="G66" s="41"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="37"/>
-      <c r="D67" s="38"/>
-      <c r="E67" s="38"/>
-      <c r="F67" s="38"/>
-      <c r="G67" s="40"/>
+      <c r="A67" s="38"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="41"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="37"/>
-      <c r="D68" s="38"/>
-      <c r="E68" s="38"/>
-      <c r="F68" s="38"/>
-      <c r="G68" s="40"/>
+      <c r="A68" s="38"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="41"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="37"/>
-      <c r="D69" s="38"/>
-      <c r="E69" s="38"/>
-      <c r="F69" s="38"/>
-      <c r="G69" s="40"/>
+      <c r="A69" s="38"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="41"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="37"/>
-      <c r="D70" s="38"/>
-      <c r="E70" s="38"/>
-      <c r="F70" s="38"/>
-      <c r="G70" s="40"/>
+      <c r="A70" s="38"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="39"/>
+      <c r="G70" s="41"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="37"/>
-      <c r="D71" s="38"/>
-      <c r="E71" s="38"/>
-      <c r="F71" s="38"/>
-      <c r="G71" s="40"/>
+      <c r="A71" s="38"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="41"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="37"/>
-      <c r="D72" s="38"/>
-      <c r="E72" s="38"/>
-      <c r="F72" s="38"/>
-      <c r="G72" s="40"/>
+      <c r="A72" s="38"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="39"/>
+      <c r="F72" s="39"/>
+      <c r="G72" s="41"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="37"/>
-      <c r="D73" s="38"/>
-      <c r="E73" s="38"/>
-      <c r="F73" s="38"/>
-      <c r="G73" s="40"/>
+      <c r="A73" s="38"/>
+      <c r="D73" s="39"/>
+      <c r="E73" s="39"/>
+      <c r="F73" s="39"/>
+      <c r="G73" s="41"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="37"/>
-      <c r="D74" s="38"/>
-      <c r="E74" s="38"/>
-      <c r="F74" s="38"/>
-      <c r="G74" s="40"/>
+      <c r="A74" s="38"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="39"/>
+      <c r="F74" s="39"/>
+      <c r="G74" s="41"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="37"/>
-      <c r="D75" s="38"/>
-      <c r="E75" s="38"/>
-      <c r="F75" s="38"/>
-      <c r="G75" s="40"/>
+      <c r="A75" s="38"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="39"/>
+      <c r="F75" s="39"/>
+      <c r="G75" s="41"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="37"/>
-      <c r="D76" s="38"/>
-      <c r="E76" s="38"/>
-      <c r="F76" s="38"/>
-      <c r="G76" s="40"/>
+      <c r="A76" s="38"/>
+      <c r="D76" s="39"/>
+      <c r="E76" s="39"/>
+      <c r="F76" s="39"/>
+      <c r="G76" s="41"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="37"/>
-      <c r="D77" s="38"/>
-      <c r="E77" s="38"/>
-      <c r="F77" s="38"/>
-      <c r="G77" s="40"/>
+      <c r="A77" s="38"/>
+      <c r="D77" s="39"/>
+      <c r="E77" s="39"/>
+      <c r="F77" s="39"/>
+      <c r="G77" s="41"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="37"/>
-      <c r="D78" s="38"/>
-      <c r="E78" s="38"/>
-      <c r="F78" s="38"/>
-      <c r="G78" s="40"/>
+      <c r="A78" s="38"/>
+      <c r="D78" s="39"/>
+      <c r="E78" s="39"/>
+      <c r="F78" s="39"/>
+      <c r="G78" s="41"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D79" s="38"/>
-      <c r="E79" s="38"/>
-      <c r="F79" s="38"/>
-      <c r="G79" s="40"/>
+      <c r="D79" s="39"/>
+      <c r="E79" s="39"/>
+      <c r="F79" s="39"/>
+      <c r="G79" s="41"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D80" s="38"/>
-      <c r="E80" s="38"/>
-      <c r="F80" s="38"/>
-      <c r="G80" s="40"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="39"/>
+      <c r="F80" s="39"/>
+      <c r="G80" s="41"/>
     </row>
     <row r="81" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D81" s="38"/>
-      <c r="E81" s="38"/>
-      <c r="F81" s="38"/>
-      <c r="G81" s="40"/>
+      <c r="D81" s="39"/>
+      <c r="E81" s="39"/>
+      <c r="F81" s="39"/>
+      <c r="G81" s="41"/>
     </row>
     <row r="82" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D82" s="38"/>
-      <c r="E82" s="38"/>
-      <c r="F82" s="38"/>
-      <c r="G82" s="40"/>
+      <c r="D82" s="39"/>
+      <c r="E82" s="39"/>
+      <c r="F82" s="39"/>
+      <c r="G82" s="41"/>
     </row>
     <row r="83" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D83" s="38"/>
-      <c r="E83" s="38"/>
-      <c r="F83" s="38"/>
-      <c r="G83" s="40"/>
+      <c r="D83" s="39"/>
+      <c r="E83" s="39"/>
+      <c r="F83" s="39"/>
+      <c r="G83" s="41"/>
     </row>
     <row r="84" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D84" s="38"/>
-      <c r="E84" s="38"/>
-      <c r="F84" s="38"/>
-      <c r="G84" s="40"/>
+      <c r="D84" s="39"/>
+      <c r="E84" s="39"/>
+      <c r="F84" s="39"/>
+      <c r="G84" s="41"/>
     </row>
   </sheetData>
   <sortState ref="A2:I84">
@@ -1975,730 +2826,730 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" style="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" style="28" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8" style="28" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="28"/>
+    <col min="1" max="1" width="29.42578125" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" style="29" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" style="29" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="37" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="38"/>
+      <c r="D2" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="38"/>
+      <c r="D3" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="39"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="38"/>
+      <c r="A4" s="38"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="39"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="38"/>
+      <c r="A5" s="38"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="39"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="38"/>
+      <c r="A6" s="38"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="39"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="38"/>
+      <c r="A7" s="38"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="39"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="38"/>
+      <c r="A8" s="38"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="39"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="38"/>
+      <c r="A9" s="38"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="39"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="38"/>
+      <c r="A10" s="38"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="39"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="38"/>
+      <c r="A11" s="38"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="39"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="38"/>
+      <c r="A12" s="38"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="39"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="38"/>
+      <c r="A13" s="38"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="39"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="38"/>
+      <c r="A14" s="40"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="39"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="38"/>
+      <c r="A15" s="40"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="39"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="38"/>
+      <c r="A16" s="38"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="39"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="38"/>
+      <c r="A17" s="40"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="39"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="38"/>
+      <c r="A18" s="38"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="39"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="38"/>
+      <c r="A19" s="38"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="39"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="38"/>
+      <c r="A20" s="38"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="39"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="38"/>
+      <c r="A21" s="38"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="39"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="38"/>
+      <c r="A22" s="38"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="39"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="38"/>
+      <c r="A23" s="38"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="39"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="38"/>
+      <c r="A24" s="38"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="39"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="38"/>
+      <c r="A25" s="38"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="39"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="38"/>
+      <c r="A26" s="38"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="39"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="38"/>
+      <c r="A27" s="38"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="39"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="38"/>
+      <c r="A28" s="38"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="39"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="38"/>
+      <c r="A29" s="38"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="39"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="37"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="38"/>
+      <c r="A30" s="38"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="39"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="37"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="38"/>
+      <c r="A31" s="38"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="39"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="37"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="38"/>
+      <c r="A32" s="38"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="39"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="37"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="38"/>
+      <c r="A33" s="38"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="39"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="37"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="38"/>
+      <c r="A34" s="38"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="39"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="37"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="38"/>
+      <c r="A35" s="38"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="39"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="37"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="38"/>
+      <c r="A36" s="38"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="39"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="37"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="40"/>
+      <c r="A37" s="38"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="41"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="37"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="40"/>
+      <c r="A38" s="38"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="41"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="37"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="40"/>
+      <c r="A39" s="38"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="41"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="37"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="40"/>
+      <c r="A40" s="38"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="41"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="37"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="40"/>
+      <c r="A41" s="38"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="41"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="37"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="40"/>
+      <c r="A42" s="38"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="41"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="37"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="40"/>
+      <c r="A43" s="38"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="41"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="37"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="40"/>
+      <c r="A44" s="38"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="41"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="37"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="40"/>
+      <c r="A45" s="38"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="41"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="37"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="40"/>
+      <c r="A46" s="38"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="41"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="37"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="40"/>
+      <c r="A47" s="38"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="41"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="37"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="40"/>
+      <c r="A48" s="38"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="41"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="37"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="40"/>
+      <c r="A49" s="38"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="41"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="37"/>
-      <c r="D50" s="38"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="40"/>
+      <c r="A50" s="38"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="41"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="37"/>
-      <c r="D51" s="38"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="40"/>
+      <c r="A51" s="38"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="41"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="37"/>
-      <c r="D52" s="38"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="40"/>
+      <c r="A52" s="38"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="41"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="37"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="40"/>
+      <c r="A53" s="38"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="41"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="37"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="38"/>
-      <c r="G54" s="40"/>
+      <c r="A54" s="38"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="41"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="37"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="38"/>
-      <c r="G55" s="40"/>
+      <c r="A55" s="38"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="41"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="37"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="38"/>
-      <c r="G56" s="40"/>
+      <c r="A56" s="38"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="41"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="37"/>
-      <c r="D57" s="38"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="38"/>
-      <c r="G57" s="40"/>
+      <c r="A57" s="38"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="41"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="37"/>
-      <c r="D58" s="38"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="38"/>
-      <c r="G58" s="40"/>
+      <c r="A58" s="38"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="41"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="37"/>
-      <c r="D59" s="38"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="38"/>
-      <c r="G59" s="40"/>
+      <c r="A59" s="38"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="41"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="37"/>
-      <c r="D60" s="38"/>
-      <c r="E60" s="38"/>
-      <c r="F60" s="38"/>
-      <c r="G60" s="40"/>
+      <c r="A60" s="38"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="41"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="37"/>
-      <c r="D61" s="38"/>
-      <c r="E61" s="38"/>
-      <c r="F61" s="38"/>
-      <c r="G61" s="40"/>
+      <c r="A61" s="38"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="41"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="37"/>
-      <c r="D62" s="38"/>
-      <c r="E62" s="38"/>
-      <c r="F62" s="38"/>
-      <c r="G62" s="40"/>
+      <c r="A62" s="38"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="41"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="37"/>
-      <c r="D63" s="38"/>
-      <c r="E63" s="38"/>
-      <c r="F63" s="38"/>
-      <c r="G63" s="40"/>
+      <c r="A63" s="38"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="41"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="37"/>
-      <c r="D64" s="38"/>
-      <c r="E64" s="38"/>
-      <c r="F64" s="38"/>
-      <c r="G64" s="40"/>
+      <c r="A64" s="38"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="41"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="37"/>
-      <c r="D65" s="38"/>
-      <c r="E65" s="38"/>
-      <c r="F65" s="38"/>
-      <c r="G65" s="40"/>
+      <c r="A65" s="38"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="41"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="37"/>
-      <c r="D66" s="38"/>
-      <c r="E66" s="38"/>
-      <c r="F66" s="38"/>
-      <c r="G66" s="40"/>
+      <c r="A66" s="38"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="39"/>
+      <c r="G66" s="41"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="37"/>
-      <c r="D67" s="38"/>
-      <c r="E67" s="38"/>
-      <c r="F67" s="38"/>
-      <c r="G67" s="40"/>
+      <c r="A67" s="38"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="41"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="37"/>
-      <c r="D68" s="38"/>
-      <c r="E68" s="38"/>
-      <c r="F68" s="38"/>
-      <c r="G68" s="40"/>
+      <c r="A68" s="38"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="41"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="37"/>
-      <c r="D69" s="38"/>
-      <c r="E69" s="38"/>
-      <c r="F69" s="38"/>
-      <c r="G69" s="40"/>
+      <c r="A69" s="38"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="41"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="37"/>
-      <c r="D70" s="38"/>
-      <c r="E70" s="38"/>
-      <c r="F70" s="38"/>
-      <c r="G70" s="40"/>
+      <c r="A70" s="38"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="39"/>
+      <c r="G70" s="41"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="37"/>
-      <c r="D71" s="38"/>
-      <c r="E71" s="38"/>
-      <c r="F71" s="38"/>
-      <c r="G71" s="40"/>
+      <c r="A71" s="38"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="41"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="37"/>
-      <c r="D72" s="38"/>
-      <c r="E72" s="38"/>
-      <c r="F72" s="38"/>
-      <c r="G72" s="40"/>
+      <c r="A72" s="38"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="39"/>
+      <c r="F72" s="39"/>
+      <c r="G72" s="41"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="37"/>
-      <c r="D73" s="38"/>
-      <c r="E73" s="38"/>
-      <c r="F73" s="38"/>
-      <c r="G73" s="40"/>
+      <c r="A73" s="38"/>
+      <c r="D73" s="39"/>
+      <c r="E73" s="39"/>
+      <c r="F73" s="39"/>
+      <c r="G73" s="41"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="37"/>
-      <c r="D74" s="38"/>
-      <c r="E74" s="38"/>
-      <c r="F74" s="38"/>
-      <c r="G74" s="40"/>
+      <c r="A74" s="38"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="39"/>
+      <c r="F74" s="39"/>
+      <c r="G74" s="41"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="37"/>
-      <c r="D75" s="38"/>
-      <c r="E75" s="38"/>
-      <c r="F75" s="38"/>
-      <c r="G75" s="40"/>
+      <c r="A75" s="38"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="39"/>
+      <c r="F75" s="39"/>
+      <c r="G75" s="41"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="37"/>
-      <c r="D76" s="38"/>
-      <c r="E76" s="38"/>
-      <c r="F76" s="38"/>
-      <c r="G76" s="40"/>
+      <c r="A76" s="38"/>
+      <c r="D76" s="39"/>
+      <c r="E76" s="39"/>
+      <c r="F76" s="39"/>
+      <c r="G76" s="41"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="37"/>
-      <c r="D77" s="38"/>
-      <c r="E77" s="38"/>
-      <c r="F77" s="38"/>
-      <c r="G77" s="40"/>
+      <c r="A77" s="38"/>
+      <c r="D77" s="39"/>
+      <c r="E77" s="39"/>
+      <c r="F77" s="39"/>
+      <c r="G77" s="41"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="37"/>
-      <c r="D78" s="38"/>
-      <c r="E78" s="38"/>
-      <c r="F78" s="38"/>
-      <c r="G78" s="40"/>
+      <c r="A78" s="38"/>
+      <c r="D78" s="39"/>
+      <c r="E78" s="39"/>
+      <c r="F78" s="39"/>
+      <c r="G78" s="41"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D79" s="38"/>
-      <c r="E79" s="38"/>
-      <c r="F79" s="38"/>
-      <c r="G79" s="40"/>
+      <c r="D79" s="39"/>
+      <c r="E79" s="39"/>
+      <c r="F79" s="39"/>
+      <c r="G79" s="41"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D80" s="38"/>
-      <c r="E80" s="38"/>
-      <c r="F80" s="38"/>
-      <c r="G80" s="40"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="39"/>
+      <c r="F80" s="39"/>
+      <c r="G80" s="41"/>
     </row>
     <row r="81" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D81" s="38"/>
-      <c r="E81" s="38"/>
-      <c r="F81" s="38"/>
-      <c r="G81" s="40"/>
+      <c r="D81" s="39"/>
+      <c r="E81" s="39"/>
+      <c r="F81" s="39"/>
+      <c r="G81" s="41"/>
     </row>
     <row r="82" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D82" s="38"/>
-      <c r="E82" s="38"/>
-      <c r="F82" s="38"/>
-      <c r="G82" s="40"/>
+      <c r="D82" s="39"/>
+      <c r="E82" s="39"/>
+      <c r="F82" s="39"/>
+      <c r="G82" s="41"/>
     </row>
     <row r="83" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D83" s="38"/>
-      <c r="E83" s="38"/>
-      <c r="F83" s="38"/>
-      <c r="G83" s="40"/>
+      <c r="D83" s="39"/>
+      <c r="E83" s="39"/>
+      <c r="F83" s="39"/>
+      <c r="G83" s="41"/>
     </row>
     <row r="84" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D84" s="38"/>
-      <c r="E84" s="38"/>
-      <c r="F84" s="38"/>
-      <c r="G84" s="40"/>
+      <c r="D84" s="39"/>
+      <c r="E84" s="39"/>
+      <c r="F84" s="39"/>
+      <c r="G84" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2950,13 +3801,13 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.85546875" style="12" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.5703125" style="11" bestFit="1" customWidth="1"/>
@@ -3273,32 +4124,17 @@
       <c r="J12"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="30"/>
-      <c r="H13" s="31" t="s">
-        <v>29</v>
-      </c>
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="16"/>
       <c r="I13" s="8"/>
     </row>
     <row r="19" spans="3:3" ht="51" x14ac:dyDescent="0.25">
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="26" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3313,7 +4149,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3325,27 +4161,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="24">
-        <v>0.3</v>
+      <c r="B4" s="25">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
